--- a/results/standardized_assortativity/oh_spearman.xlsx
+++ b/results/standardized_assortativity/oh_spearman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/vincent_bazinet_mail_mcgill_ca/Documents/projects (current)/assortativity/git-hub repository/bazinet_assortativity/results/standardized_assortativity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_696CFDD78079F83E6A11C4F641245E3F640FEBCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF5C40F-9ED8-4C27-AB30-D260F05E9B4D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_696CCA1FC55A503E6A11C4F641245E3F640FEBCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{517A664C-0947-4C34-8C61-05B29B25223F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oh_spearman" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,12 +404,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
